--- a/Team-Data/2011-12/2-12-2011-12.xlsx
+++ b/Team-Data/2011-12/2-12-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,91 +733,91 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.643</v>
+        <v>0.667</v>
       </c>
       <c r="H2" t="n">
         <v>49.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.449</v>
+        <v>0.452</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>17.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.392</v>
+        <v>0.391</v>
       </c>
       <c r="O2" t="n">
-        <v>15.8</v>
+        <v>16.2</v>
       </c>
       <c r="P2" t="n">
-        <v>21.6</v>
+        <v>22.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="R2" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S2" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T2" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U2" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V2" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W2" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X2" t="n">
         <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z2" t="n">
         <v>17.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.5</v>
+        <v>95.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
         <v>7</v>
@@ -762,25 +829,25 @@
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO2" t="n">
         <v>17</v>
       </c>
-      <c r="AN2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>20</v>
-      </c>
       <c r="AP2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
@@ -789,22 +856,22 @@
         <v>23</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>4</v>
       </c>
       <c r="AW2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -813,13 +880,13 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -848,91 +915,91 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.556</v>
+        <v>0.538</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J3" t="n">
         <v>75.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="M3" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
       <c r="O3" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P3" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.764</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T3" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="U3" t="n">
         <v>22.5</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y3" t="n">
         <v>5.4</v>
       </c>
-      <c r="Y3" t="n">
-        <v>5.3</v>
-      </c>
       <c r="Z3" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.2</v>
+        <v>90</v>
       </c>
       <c r="AC3" t="n">
         <v>3.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>14</v>
@@ -950,49 +1017,49 @@
         <v>9</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AM3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-14.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1168,7 +1235,7 @@
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -1212,58 +1279,58 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
         <v>23</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>0.767</v>
+        <v>0.793</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J5" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.462</v>
+        <v>0.465</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.376</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
         <v>15.6</v>
       </c>
       <c r="P5" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="R5" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S5" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T5" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U5" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V5" t="n">
         <v>13.9</v>
@@ -1272,22 +1339,22 @@
         <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z5" t="n">
         <v>17.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1296,28 +1363,28 @@
         <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL5" t="n">
         <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
         <v>8</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
@@ -1493,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>13</v>
@@ -1529,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>3.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1666,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
         <v>16</v>
@@ -1678,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="AL7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AM7" t="n">
         <v>5</v>
@@ -1687,7 +1754,7 @@
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP7" t="n">
         <v>18</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1860,13 +1927,13 @@
         <v>2</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>29</v>
@@ -1884,7 +1951,7 @@
         <v>6</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
@@ -1893,7 +1960,7 @@
         <v>25</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>18</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -1940,70 +2007,70 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>0.276</v>
+        <v>0.286</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
       </c>
       <c r="I9" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="J9" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.428</v>
+        <v>0.432</v>
       </c>
       <c r="L9" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P9" t="n">
         <v>20.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.778</v>
+        <v>0.772</v>
       </c>
       <c r="R9" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S9" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="T9" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="U9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="V9" t="n">
         <v>16.3</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X9" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z9" t="n">
         <v>19.1</v>
@@ -2012,13 +2079,13 @@
         <v>18.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>87.2</v>
+        <v>87.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-8.5</v>
+        <v>-8.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>26</v>
@@ -2036,10 +2103,10 @@
         <v>27</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
         <v>25</v>
@@ -2048,10 +2115,10 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
@@ -2069,7 +2136,7 @@
         <v>29</v>
       </c>
       <c r="AU9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV9" t="n">
         <v>27</v>
@@ -2081,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ9" t="n">
         <v>9</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -2122,55 +2189,55 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
         <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>0.417</v>
+        <v>0.391</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J10" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="M10" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.396</v>
+        <v>0.389</v>
       </c>
       <c r="O10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q10" t="n">
         <v>0.735</v>
       </c>
       <c r="R10" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="S10" t="n">
         <v>29.8</v>
       </c>
       <c r="T10" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="U10" t="n">
         <v>23.1</v>
@@ -2179,34 +2246,34 @@
         <v>15.1</v>
       </c>
       <c r="W10" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y10" t="n">
         <v>4</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="AA10" t="n">
         <v>17.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.4</v>
+        <v>-1.9</v>
       </c>
       <c r="AD10" t="n">
         <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
@@ -2215,13 +2282,13 @@
         <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2230,10 +2297,10 @@
         <v>6</v>
       </c>
       <c r="AN10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
         <v>24</v>
@@ -2242,10 +2309,10 @@
         <v>22</v>
       </c>
       <c r="AR10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AS10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="n">
         <v>27</v>
@@ -2254,13 +2321,13 @@
         <v>2</v>
       </c>
       <c r="AV10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY10" t="n">
         <v>3</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -2304,91 +2371,91 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
       </c>
       <c r="F11" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="H11" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>85</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="O11" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R11" t="n">
         <v>12</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="H11" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7</v>
-      </c>
-      <c r="M11" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="O11" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="P11" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="R11" t="n">
-        <v>12.1</v>
-      </c>
       <c r="S11" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T11" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U11" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X11" t="n">
         <v>5.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA11" t="n">
         <v>17.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
         <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -2403,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="AK11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL11" t="n">
         <v>11</v>
       </c>
-      <c r="AL11" t="n">
-        <v>7</v>
-      </c>
       <c r="AM11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>15</v>
@@ -2418,16 +2485,16 @@
         <v>28</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
         <v>6</v>
       </c>
       <c r="AS11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT11" t="n">
         <v>4</v>
@@ -2436,16 +2503,16 @@
         <v>13</v>
       </c>
       <c r="AV11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX11" t="n">
         <v>14</v>
       </c>
-      <c r="AW11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX11" t="n">
+      <c r="AY11" t="n">
         <v>15</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>13</v>
       </c>
       <c r="AZ11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -2564,34 +2631,34 @@
         <v>2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
         <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
         <v>9</v>
@@ -2603,13 +2670,13 @@
         <v>9</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR12" t="n">
         <v>9</v>
       </c>
       <c r="AS12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2764,7 +2831,7 @@
         <v>9</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK13" t="n">
         <v>7</v>
@@ -2794,7 +2861,7 @@
         <v>22</v>
       </c>
       <c r="AT13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2806,13 +2873,13 @@
         <v>12</v>
       </c>
       <c r="AX13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY13" t="n">
         <v>5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.571</v>
+        <v>0.556</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
@@ -2871,52 +2938,52 @@
         <v>79</v>
       </c>
       <c r="K14" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L14" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="M14" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.291</v>
+        <v>0.284</v>
       </c>
       <c r="O14" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P14" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R14" t="n">
         <v>11.8</v>
       </c>
       <c r="S14" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="T14" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="U14" t="n">
         <v>20.8</v>
       </c>
       <c r="V14" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W14" t="n">
         <v>5.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
         <v>3.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
         <v>19.9</v>
@@ -2928,16 +2995,16 @@
         <v>1.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>14</v>
@@ -2946,10 +3013,10 @@
         <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2973,7 +3040,7 @@
         <v>11</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2982,13 +3049,13 @@
         <v>16</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>21</v>
       </c>
       <c r="BC14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.519</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
@@ -3050,7 +3117,7 @@
         <v>36.1</v>
       </c>
       <c r="J15" t="n">
-        <v>82.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.438</v>
@@ -3059,73 +3126,73 @@
         <v>3.4</v>
       </c>
       <c r="M15" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.307</v>
+        <v>0.311</v>
       </c>
       <c r="O15" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P15" t="n">
         <v>22.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="S15" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T15" t="n">
         <v>42.4</v>
       </c>
       <c r="U15" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="X15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
         <v>16</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>17</v>
       </c>
       <c r="AG15" t="n">
         <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
@@ -3152,10 +3219,10 @@
         <v>14</v>
       </c>
       <c r="AR15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT15" t="n">
         <v>14</v>
@@ -3164,13 +3231,13 @@
         <v>25</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>25</v>
@@ -3182,10 +3249,10 @@
         <v>15</v>
       </c>
       <c r="BB15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
         <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.75</v>
+        <v>0.741</v>
       </c>
       <c r="H16" t="n">
         <v>48.9</v>
@@ -3232,73 +3299,73 @@
         <v>38.2</v>
       </c>
       <c r="J16" t="n">
-        <v>79.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
       <c r="L16" t="n">
         <v>5.7</v>
       </c>
       <c r="M16" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="O16" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="P16" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.775</v>
+        <v>0.772</v>
       </c>
       <c r="R16" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S16" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="T16" t="n">
-        <v>42.5</v>
+        <v>42.1</v>
       </c>
       <c r="U16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W16" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y16" t="n">
         <v>4.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
         <v>3</v>
@@ -3307,10 +3374,10 @@
         <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3331,28 +3398,28 @@
         <v>3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS16" t="n">
         <v>5</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW16" t="n">
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3486,7 +3553,7 @@
         <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>13</v>
@@ -3495,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>12</v>
@@ -3507,7 +3574,7 @@
         <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
@@ -3516,10 +3583,10 @@
         <v>4</v>
       </c>
       <c r="AR17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
         <v>20</v>
@@ -3534,16 +3601,16 @@
         <v>15</v>
       </c>
       <c r="AX17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ17" t="n">
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>19</v>
@@ -3674,16 +3741,16 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN18" t="n">
         <v>20</v>
@@ -3698,7 +3765,7 @@
         <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
         <v>7</v>
@@ -3731,7 +3798,7 @@
         <v>11</v>
       </c>
       <c r="BC18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-7.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
@@ -3874,19 +3941,19 @@
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AU19" t="n">
         <v>19</v>
@@ -3895,16 +3962,16 @@
         <v>21</v>
       </c>
       <c r="AW19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>27</v>
       </c>
       <c r="AY19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>29</v>
@@ -4032,13 +4099,13 @@
         <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
         <v>17</v>
@@ -4065,7 +4132,7 @@
         <v>14</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
@@ -4086,7 +4153,7 @@
         <v>22</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>0.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>19</v>
@@ -4214,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>22</v>
@@ -4223,10 +4290,10 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
@@ -4235,22 +4302,22 @@
         <v>25</v>
       </c>
       <c r="AO21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP21" t="n">
         <v>6</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS21" t="n">
         <v>18</v>
       </c>
-      <c r="AS21" t="n">
-        <v>17</v>
-      </c>
       <c r="AT21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4274,10 +4341,10 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>4.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4393,10 +4460,10 @@
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>1.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>7</v>
@@ -4578,7 +4645,7 @@
         <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -4623,7 +4690,7 @@
         <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>9.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>4</v>
@@ -4760,10 +4827,10 @@
         <v>5</v>
       </c>
       <c r="AH24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
@@ -4772,13 +4839,13 @@
         <v>8</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>20</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,22 +4857,22 @@
         <v>27</v>
       </c>
       <c r="AR24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>11</v>
       </c>
       <c r="AU24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX24" t="n">
         <v>22</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -4948,13 +5015,13 @@
         <v>14</v>
       </c>
       <c r="AJ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AM25" t="n">
         <v>13</v>
@@ -4966,13 +5033,13 @@
         <v>29</v>
       </c>
       <c r="AP25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
         <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4987,7 +5054,7 @@
         <v>9</v>
       </c>
       <c r="AW25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -4999,7 +5066,7 @@
         <v>6</v>
       </c>
       <c r="BA25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>5.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
         <v>16</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
@@ -5148,7 +5215,7 @@
         <v>9</v>
       </c>
       <c r="AP26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ26" t="n">
         <v>5</v>
@@ -5160,7 +5227,7 @@
         <v>14</v>
       </c>
       <c r="AT26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
@@ -5172,7 +5239,7 @@
         <v>3</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
         <v>12</v>
@@ -5184,7 +5251,7 @@
         <v>7</v>
       </c>
       <c r="BB26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5306,19 +5373,19 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
       </c>
       <c r="AL27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
         <v>9</v>
@@ -5339,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT27" t="n">
         <v>6</v>
@@ -5369,7 +5436,7 @@
         <v>24</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5488,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="n">
         <v>7</v>
@@ -5503,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN28" t="n">
         <v>7</v>
@@ -5518,7 +5585,7 @@
         <v>25</v>
       </c>
       <c r="AR28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>11</v>
@@ -5527,7 +5594,7 @@
         <v>19</v>
       </c>
       <c r="AU28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -5580,88 +5647,88 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" t="n">
-        <v>0.31</v>
+        <v>0.321</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="J29" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.421</v>
+        <v>0.42</v>
       </c>
       <c r="L29" t="n">
         <v>5.9</v>
       </c>
       <c r="M29" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.335</v>
+        <v>0.33</v>
       </c>
       <c r="O29" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P29" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R29" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S29" t="n">
         <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U29" t="n">
         <v>20.6</v>
       </c>
       <c r="V29" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
         <v>25</v>
@@ -5670,7 +5737,7 @@
         <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>30</v>
@@ -5679,19 +5746,19 @@
         <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL29" t="n">
         <v>20</v>
       </c>
       <c r="AM29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO29" t="n">
         <v>16</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>20</v>
@@ -5700,7 +5767,7 @@
         <v>13</v>
       </c>
       <c r="AR29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
@@ -5715,13 +5782,13 @@
         <v>19</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -5762,58 +5829,58 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" t="n">
         <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>0.538</v>
+        <v>0.52</v>
       </c>
       <c r="H30" t="n">
         <v>48.6</v>
       </c>
       <c r="I30" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J30" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K30" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M30" t="n">
         <v>12.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.297</v>
+        <v>0.293</v>
       </c>
       <c r="O30" t="n">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="P30" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R30" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="T30" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U30" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V30" t="n">
         <v>14</v>
@@ -5825,31 +5892,31 @@
         <v>6</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z30" t="n">
         <v>22.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG30" t="n">
         <v>16</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>15</v>
       </c>
       <c r="AH30" t="n">
         <v>5</v>
@@ -5861,7 +5928,7 @@
         <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5873,25 +5940,25 @@
         <v>27</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
         <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU30" t="n">
         <v>15</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>14</v>
       </c>
       <c r="AV30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
@@ -5944,61 +6011,61 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>22</v>
       </c>
       <c r="G31" t="n">
-        <v>0.214</v>
+        <v>0.185</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
       </c>
       <c r="I31" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J31" t="n">
-        <v>83.5</v>
+        <v>83.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.421</v>
+        <v>0.42</v>
       </c>
       <c r="L31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M31" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.299</v>
+        <v>0.295</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.724</v>
+        <v>0.72</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S31" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="T31" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U31" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="V31" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W31" t="n">
         <v>8.4</v>
@@ -6007,22 +6074,22 @@
         <v>7.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AA31" t="n">
         <v>18.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>90.3</v>
+        <v>90</v>
       </c>
       <c r="AC31" t="n">
-        <v>-9.1</v>
+        <v>-10.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6034,16 +6101,16 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6058,7 +6125,7 @@
         <v>21</v>
       </c>
       <c r="AP31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
@@ -6067,16 +6134,16 @@
         <v>10</v>
       </c>
       <c r="AS31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>9</v>
@@ -6085,10 +6152,10 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-12-2011-12</t>
+          <t>2012-02-12</t>
         </is>
       </c>
     </row>
